--- a/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST/AVERAGE_10_9_matched_errors_first.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST/AVERAGE_10_9_matched_errors_first.xlsx
@@ -994,6 +994,9 @@
       <c r="J15">
         <v>0.4342244890076376</v>
       </c>
+      <c r="K15">
+        <v>0.1683237681281231</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
@@ -1023,8 +1026,11 @@
       <c r="I16">
         <v>0.4381923865207467</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="J16">
+        <v>0.1722916656412322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1049,8 +1055,11 @@
       <c r="H17">
         <v>0.5738324766909881</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0.3079317558114735</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1072,8 +1081,11 @@
       <c r="G18">
         <v>0.3330262948353234</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="H18">
+        <v>0.06712557395580883</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1092,8 +1104,11 @@
       <c r="F19">
         <v>0.287695079583227</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="G19">
+        <v>0.02179435870371246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -1109,8 +1124,11 @@
       <c r="E20">
         <v>0.2208336576471732</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="F20">
+        <v>-0.04506706323234141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1123,8 +1141,11 @@
       <c r="D21">
         <v>0.1912474552904566</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="E21">
+        <v>-0.07465326558905801</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -1134,18 +1155,27 @@
       <c r="C22">
         <v>0.1730967985608157</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="D22">
+        <v>-0.0928039223186989</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
         <v>0.1550649743121164</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="C23">
+        <v>-0.1108357465673982</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-0.1624199859130616</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST/AVERAGE_10_9_matched_errors_first.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST/AVERAGE_10_9_matched_errors_first.xlsx
@@ -513,34 +513,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>2.267328492325126</v>
+        <v>10.2000313112857</v>
       </c>
       <c r="C2">
-        <v>10.2000313112857</v>
+        <v>-7.713854356263806</v>
       </c>
       <c r="D2">
-        <v>-7.713854356263806</v>
+        <v>0.4730551773759682</v>
       </c>
       <c r="E2">
-        <v>0.4730551773759682</v>
+        <v>1.112750016219461</v>
       </c>
       <c r="F2">
-        <v>1.112750016219461</v>
+        <v>-0.688116008571576</v>
       </c>
       <c r="G2">
-        <v>-0.688116008571576</v>
+        <v>-1.647050705078689</v>
       </c>
       <c r="H2">
-        <v>-1.647050705078689</v>
+        <v>1.1866675198023</v>
       </c>
       <c r="I2">
-        <v>1.1866675198023</v>
+        <v>-0.4824371439038641</v>
       </c>
       <c r="J2">
-        <v>-0.4824371439038641</v>
+        <v>0.5377352938393787</v>
       </c>
       <c r="K2">
-        <v>0.5377352938393787</v>
+        <v>-1.176054163059933</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -548,34 +548,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>9.885106142864725</v>
+        <v>-8.028779524684778</v>
       </c>
       <c r="C3">
-        <v>-8.028779524684778</v>
+        <v>0.1581300089549967</v>
       </c>
       <c r="D3">
-        <v>0.1581300089549967</v>
+        <v>0.7978248477984897</v>
       </c>
       <c r="E3">
-        <v>0.7978248477984897</v>
+        <v>-1.003041176992548</v>
       </c>
       <c r="F3">
-        <v>-1.003041176992548</v>
+        <v>-1.96197587349966</v>
       </c>
       <c r="G3">
-        <v>-1.96197587349966</v>
+        <v>0.8717423513813284</v>
       </c>
       <c r="H3">
-        <v>0.8717423513813284</v>
+        <v>-0.7973623123248356</v>
       </c>
       <c r="I3">
-        <v>-0.7973623123248356</v>
+        <v>0.2228101254184071</v>
       </c>
       <c r="J3">
-        <v>0.2228101254184071</v>
+        <v>-1.490979331480904</v>
       </c>
       <c r="K3">
-        <v>-1.490979331480904</v>
+        <v>1.337376042118068</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -583,34 +583,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-9.085154484867306</v>
+        <v>-0.898244951227533</v>
       </c>
       <c r="C4">
-        <v>-0.898244951227533</v>
+        <v>-0.2585501123840399</v>
       </c>
       <c r="D4">
-        <v>-0.2585501123840399</v>
+        <v>-2.059416137175077</v>
       </c>
       <c r="E4">
-        <v>-2.059416137175077</v>
+        <v>-3.01835083368219</v>
       </c>
       <c r="F4">
-        <v>-3.01835083368219</v>
+        <v>-0.1846326088012012</v>
       </c>
       <c r="G4">
-        <v>-0.1846326088012012</v>
+        <v>-1.853737272507365</v>
       </c>
       <c r="H4">
-        <v>-1.853737272507365</v>
+        <v>-0.8335648347641225</v>
       </c>
       <c r="I4">
-        <v>-0.8335648347641225</v>
+        <v>-2.547354291663434</v>
       </c>
       <c r="J4">
-        <v>-2.547354291663434</v>
+        <v>0.281001081935538</v>
       </c>
       <c r="K4">
-        <v>0.281001081935538</v>
+        <v>-1.954331517930581</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -618,34 +618,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-0.02759857525660239</v>
+        <v>0.6120962635868906</v>
       </c>
       <c r="C5">
-        <v>0.6120962635868906</v>
+        <v>-1.188769761204147</v>
       </c>
       <c r="D5">
-        <v>-1.188769761204147</v>
+        <v>-2.14770445771126</v>
       </c>
       <c r="E5">
-        <v>-2.14770445771126</v>
+        <v>0.6860137671697293</v>
       </c>
       <c r="F5">
-        <v>0.6860137671697293</v>
+        <v>-0.9830908965364347</v>
       </c>
       <c r="G5">
-        <v>-0.9830908965364347</v>
+        <v>0.03708154120680809</v>
       </c>
       <c r="H5">
-        <v>0.03708154120680809</v>
+        <v>-1.676707915692503</v>
       </c>
       <c r="I5">
-        <v>-1.676707915692503</v>
+        <v>1.151647457906469</v>
       </c>
       <c r="J5">
-        <v>1.151647457906469</v>
+        <v>-1.083685141959651</v>
       </c>
       <c r="K5">
-        <v>-1.083685141959651</v>
+        <v>0.2676499159580117</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -653,34 +653,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.6014450472570072</v>
+        <v>-1.19942097753403</v>
       </c>
       <c r="C6">
-        <v>-1.19942097753403</v>
+        <v>-2.158355674041143</v>
       </c>
       <c r="D6">
-        <v>-2.158355674041143</v>
+        <v>0.6753625508398458</v>
       </c>
       <c r="E6">
-        <v>0.6753625508398458</v>
+        <v>-0.9937421128663182</v>
       </c>
       <c r="F6">
-        <v>-0.9937421128663182</v>
+        <v>0.02643032487692459</v>
       </c>
       <c r="G6">
-        <v>0.02643032487692459</v>
+        <v>-1.687359132022387</v>
       </c>
       <c r="H6">
-        <v>-1.687359132022387</v>
+        <v>1.140996241576585</v>
       </c>
       <c r="I6">
-        <v>1.140996241576585</v>
+        <v>-1.094336358289534</v>
       </c>
       <c r="J6">
-        <v>-1.094336358289534</v>
+        <v>0.2569986996281282</v>
       </c>
       <c r="K6">
-        <v>0.2569986996281282</v>
+        <v>-0.3644392301887736</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -688,34 +688,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-1.308035509750171</v>
+        <v>-2.266970206257284</v>
       </c>
       <c r="C7">
-        <v>-2.266970206257284</v>
+        <v>0.5667480186237051</v>
       </c>
       <c r="D7">
-        <v>0.5667480186237051</v>
+        <v>-1.102356645082459</v>
       </c>
       <c r="E7">
-        <v>-1.102356645082459</v>
+        <v>-0.08218420733921622</v>
       </c>
       <c r="F7">
-        <v>-0.08218420733921622</v>
+        <v>-1.795973664238528</v>
       </c>
       <c r="G7">
-        <v>-1.795973664238528</v>
+        <v>1.032381709360444</v>
       </c>
       <c r="H7">
-        <v>1.032381709360444</v>
+        <v>-1.202950890505675</v>
       </c>
       <c r="I7">
-        <v>-1.202950890505675</v>
+        <v>0.1483841674119874</v>
       </c>
       <c r="J7">
-        <v>0.1483841674119874</v>
+        <v>-0.4730537624049144</v>
       </c>
       <c r="K7">
-        <v>-0.4730537624049144</v>
+        <v>0.02750693478591659</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -723,34 +723,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-2.058868485289545</v>
+        <v>0.774849739591444</v>
       </c>
       <c r="C8">
-        <v>0.774849739591444</v>
+        <v>-0.89425492411472</v>
       </c>
       <c r="D8">
-        <v>-0.89425492411472</v>
+        <v>0.1259175136285228</v>
       </c>
       <c r="E8">
-        <v>0.1259175136285228</v>
+        <v>-1.587871943270789</v>
       </c>
       <c r="F8">
-        <v>-1.587871943270789</v>
+        <v>1.240483430328183</v>
       </c>
       <c r="G8">
-        <v>1.240483430328183</v>
+        <v>-0.994849169537936</v>
       </c>
       <c r="H8">
-        <v>-0.994849169537936</v>
+        <v>0.3564858883797264</v>
       </c>
       <c r="I8">
-        <v>0.3564858883797264</v>
+        <v>-0.2649520414371754</v>
       </c>
       <c r="J8">
-        <v>-0.2649520414371754</v>
+        <v>0.2356086557536556</v>
       </c>
       <c r="K8">
-        <v>0.2356086557536556</v>
+        <v>-0.4322994165924858</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,34 +758,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.8913479099652445</v>
+        <v>-0.7777567537409195</v>
       </c>
       <c r="C9">
-        <v>-0.7777567537409195</v>
+        <v>0.2424156840023232</v>
       </c>
       <c r="D9">
-        <v>0.2424156840023232</v>
+        <v>-1.471373772896988</v>
       </c>
       <c r="E9">
-        <v>-1.471373772896988</v>
+        <v>1.356981600701984</v>
       </c>
       <c r="F9">
-        <v>1.356981600701984</v>
+        <v>-0.8783509991641355</v>
       </c>
       <c r="G9">
-        <v>-0.8783509991641355</v>
+        <v>0.4729840587535268</v>
       </c>
       <c r="H9">
-        <v>0.4729840587535268</v>
+        <v>-0.148453871063375</v>
       </c>
       <c r="I9">
-        <v>-0.148453871063375</v>
+        <v>0.352106826127456</v>
       </c>
       <c r="J9">
-        <v>0.352106826127456</v>
+        <v>-0.3158012462186854</v>
       </c>
       <c r="K9">
-        <v>-0.3158012462186854</v>
+        <v>0.1131997290193177</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,34 +793,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.7322633397437844</v>
+        <v>0.2879090979994584</v>
       </c>
       <c r="C10">
-        <v>0.2879090979994584</v>
+        <v>-1.425880358899853</v>
       </c>
       <c r="D10">
-        <v>-1.425880358899853</v>
+        <v>1.402475014699119</v>
       </c>
       <c r="E10">
-        <v>1.402475014699119</v>
+        <v>-0.8328575851670005</v>
       </c>
       <c r="F10">
-        <v>-0.8328575851670005</v>
+        <v>0.5184774727506619</v>
       </c>
       <c r="G10">
-        <v>0.5184774727506619</v>
+        <v>-0.1029604570662399</v>
       </c>
       <c r="H10">
-        <v>-0.1029604570662399</v>
+        <v>0.3976002401245912</v>
       </c>
       <c r="I10">
-        <v>0.3976002401245912</v>
+        <v>-0.2703078322215502</v>
       </c>
       <c r="J10">
-        <v>-0.2703078322215502</v>
+        <v>0.1586931430164528</v>
       </c>
       <c r="K10">
-        <v>0.1586931430164528</v>
+        <v>0.2163646915946629</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -828,34 +828,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.2703549766394939</v>
+        <v>-1.443434480259818</v>
       </c>
       <c r="C11">
-        <v>-1.443434480259818</v>
+        <v>1.384920893339154</v>
       </c>
       <c r="D11">
-        <v>1.384920893339154</v>
+        <v>-0.8504117065269649</v>
       </c>
       <c r="E11">
-        <v>-0.8504117065269649</v>
+        <v>0.5009233513906975</v>
       </c>
       <c r="F11">
-        <v>0.5009233513906975</v>
+        <v>-0.1205145784262043</v>
       </c>
       <c r="G11">
-        <v>-0.1205145784262043</v>
+        <v>0.3800461187646267</v>
       </c>
       <c r="H11">
-        <v>0.3800461187646267</v>
+        <v>-0.2878619535815147</v>
       </c>
       <c r="I11">
-        <v>-0.2878619535815147</v>
+        <v>0.1411390216564884</v>
       </c>
       <c r="J11">
-        <v>0.1411390216564884</v>
+        <v>0.1988105702346985</v>
       </c>
       <c r="K11">
-        <v>0.1988105702346985</v>
+        <v>0.322776941072984</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -863,34 +863,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-1.355327161308811</v>
+        <v>1.473028212290161</v>
       </c>
       <c r="C12">
-        <v>1.473028212290161</v>
+        <v>-0.7623043875759586</v>
       </c>
       <c r="D12">
-        <v>-0.7623043875759586</v>
+        <v>0.5890306703417038</v>
       </c>
       <c r="E12">
-        <v>0.5890306703417038</v>
+        <v>-0.0324072594751981</v>
       </c>
       <c r="F12">
-        <v>-0.0324072594751981</v>
+        <v>0.4681534377156329</v>
       </c>
       <c r="G12">
-        <v>0.4681534377156329</v>
+        <v>-0.1997546346305085</v>
       </c>
       <c r="H12">
-        <v>-0.1997546346305085</v>
+        <v>0.2292463406074946</v>
       </c>
       <c r="I12">
-        <v>0.2292463406074946</v>
+        <v>0.2869178891857047</v>
       </c>
       <c r="J12">
-        <v>0.2869178891857047</v>
+        <v>0.4108842600239903</v>
       </c>
       <c r="K12">
-        <v>0.4108842600239903</v>
+        <v>-0.4825338632108016</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -898,34 +898,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>1.651602845777944</v>
+        <v>-0.5837297540881751</v>
       </c>
       <c r="C13">
-        <v>-0.5837297540881751</v>
+        <v>0.7676053038294873</v>
       </c>
       <c r="D13">
-        <v>0.7676053038294873</v>
+        <v>0.1461673740125855</v>
       </c>
       <c r="E13">
-        <v>0.1461673740125855</v>
+        <v>0.6467280712034165</v>
       </c>
       <c r="F13">
-        <v>0.6467280712034165</v>
+        <v>-0.02118000114272489</v>
       </c>
       <c r="G13">
-        <v>-0.02118000114272489</v>
+        <v>0.4078209740952782</v>
       </c>
       <c r="H13">
-        <v>0.4078209740952782</v>
+        <v>0.4654925226734883</v>
       </c>
       <c r="I13">
-        <v>0.4654925226734883</v>
+        <v>0.5894588935117738</v>
       </c>
       <c r="J13">
-        <v>0.5894588935117738</v>
+        <v>-0.303959229723018</v>
       </c>
       <c r="K13">
-        <v>-0.303959229723018</v>
+        <v>0.4661714972207444</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -933,34 +933,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.3282974736644749</v>
+        <v>1.679632531582137</v>
       </c>
       <c r="C14">
-        <v>1.679632531582137</v>
+        <v>1.058194601765235</v>
       </c>
       <c r="D14">
-        <v>1.058194601765235</v>
+        <v>1.558755298956066</v>
       </c>
       <c r="E14">
-        <v>1.558755298956066</v>
+        <v>0.8908472266099251</v>
       </c>
       <c r="F14">
-        <v>0.8908472266099251</v>
+        <v>1.319848201847928</v>
       </c>
       <c r="G14">
-        <v>1.319848201847928</v>
+        <v>1.377519750426138</v>
       </c>
       <c r="H14">
-        <v>1.377519750426138</v>
+        <v>1.501486121264424</v>
       </c>
       <c r="I14">
-        <v>1.501486121264424</v>
+        <v>0.608067998029632</v>
       </c>
       <c r="J14">
-        <v>0.608067998029632</v>
+        <v>1.378198724973394</v>
       </c>
       <c r="K14">
-        <v>1.378198724973394</v>
+        <v>1.11229800409388</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -968,33 +968,30 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.7356582956163805</v>
+        <v>0.1142203657994787</v>
       </c>
       <c r="C15">
-        <v>0.1142203657994787</v>
+        <v>0.6147810629903097</v>
       </c>
       <c r="D15">
-        <v>0.6147810629903097</v>
+        <v>-0.0531270093558317</v>
       </c>
       <c r="E15">
-        <v>-0.0531270093558317</v>
+        <v>0.3758739658821714</v>
       </c>
       <c r="F15">
-        <v>0.3758739658821714</v>
+        <v>0.4335455144603815</v>
       </c>
       <c r="G15">
-        <v>0.4335455144603815</v>
+        <v>0.557511885298667</v>
       </c>
       <c r="H15">
-        <v>0.557511885298667</v>
+        <v>-0.3359062379361248</v>
       </c>
       <c r="I15">
-        <v>-0.3359062379361248</v>
+        <v>0.4342244890076376</v>
       </c>
       <c r="J15">
-        <v>0.4342244890076376</v>
-      </c>
-      <c r="K15">
         <v>0.1683237681281231</v>
       </c>
     </row>
@@ -1003,179 +1000,152 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.1181882633125878</v>
+        <v>0.6187489605034189</v>
       </c>
       <c r="C16">
-        <v>0.6187489605034189</v>
+        <v>-0.04915911184272259</v>
       </c>
       <c r="D16">
-        <v>-0.04915911184272259</v>
+        <v>0.3798418633952805</v>
       </c>
       <c r="E16">
-        <v>0.3798418633952805</v>
+        <v>0.4375134119734906</v>
       </c>
       <c r="F16">
-        <v>0.4375134119734906</v>
+        <v>0.5614797828117761</v>
       </c>
       <c r="G16">
-        <v>0.5614797828117761</v>
+        <v>-0.3319383404230157</v>
       </c>
       <c r="H16">
-        <v>-0.3319383404230157</v>
+        <v>0.4381923865207467</v>
       </c>
       <c r="I16">
-        <v>0.4381923865207467</v>
-      </c>
-      <c r="J16">
         <v>0.1722916656412322</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.7543890506736601</v>
+        <v>0.08648097832751878</v>
       </c>
       <c r="C17">
-        <v>0.08648097832751878</v>
+        <v>0.5154819535655218</v>
       </c>
       <c r="D17">
-        <v>0.5154819535655218</v>
+        <v>0.573153502143732</v>
       </c>
       <c r="E17">
-        <v>0.573153502143732</v>
+        <v>0.6971198729820175</v>
       </c>
       <c r="F17">
-        <v>0.6971198729820175</v>
+        <v>-0.1962982502527744</v>
       </c>
       <c r="G17">
-        <v>-0.1962982502527744</v>
+        <v>0.5738324766909881</v>
       </c>
       <c r="H17">
-        <v>0.5738324766909881</v>
-      </c>
-      <c r="I17">
         <v>0.3079317558114735</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-0.1543252035281459</v>
+        <v>0.2746757717098572</v>
       </c>
       <c r="C18">
-        <v>0.2746757717098572</v>
+        <v>0.3323473202880673</v>
       </c>
       <c r="D18">
-        <v>0.3323473202880673</v>
+        <v>0.4563136911263528</v>
       </c>
       <c r="E18">
-        <v>0.4563136911263528</v>
+        <v>-0.4371044321084391</v>
       </c>
       <c r="F18">
-        <v>-0.4371044321084391</v>
+        <v>0.3330262948353234</v>
       </c>
       <c r="G18">
-        <v>0.3330262948353234</v>
-      </c>
-      <c r="H18">
         <v>0.06712557395580883</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.2293445564577608</v>
+        <v>0.2870161050359709</v>
       </c>
       <c r="C19">
-        <v>0.2870161050359709</v>
+        <v>0.4109824758742565</v>
       </c>
       <c r="D19">
-        <v>0.4109824758742565</v>
+        <v>-0.4824356473605354</v>
       </c>
       <c r="E19">
-        <v>-0.4824356473605354</v>
+        <v>0.287695079583227</v>
       </c>
       <c r="F19">
-        <v>0.287695079583227</v>
-      </c>
-      <c r="G19">
         <v>0.02179435870371246</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.2201546830999171</v>
+        <v>0.3441210539382026</v>
       </c>
       <c r="C20">
-        <v>0.3441210539382026</v>
+        <v>-0.5492970692965893</v>
       </c>
       <c r="D20">
-        <v>-0.5492970692965893</v>
+        <v>0.2208336576471732</v>
       </c>
       <c r="E20">
-        <v>0.2208336576471732</v>
-      </c>
-      <c r="F20">
         <v>-0.04506706323234141</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.314534851581486</v>
+        <v>-0.5788832716533059</v>
       </c>
       <c r="C21">
-        <v>-0.5788832716533059</v>
+        <v>0.1912474552904566</v>
       </c>
       <c r="D21">
-        <v>0.1912474552904566</v>
-      </c>
-      <c r="E21">
         <v>-0.07465326558905801</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.5970339283829468</v>
+        <v>0.1730967985608157</v>
       </c>
       <c r="C22">
-        <v>0.1730967985608157</v>
-      </c>
-      <c r="D22">
         <v>-0.0928039223186989</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.1550649743121164</v>
-      </c>
-      <c r="C23">
         <v>-0.1108357465673982</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B24">
-        <v>-0.1624199859130616</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST/AVERAGE_10_9_matched_errors_first.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST/AVERAGE_10_9_matched_errors_first.xlsx
@@ -513,34 +513,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>2.267328492325126</v>
+      </c>
+      <c r="C2">
         <v>10.2000313112857</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-7.713854356263806</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.4730551773759682</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1.112750016219461</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>-0.688116008571576</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-1.647050705078689</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1.1866675198023</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>-0.4824371439038641</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.5377352938393787</v>
-      </c>
-      <c r="K2">
-        <v>-1.176054163059933</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -548,34 +548,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>9.885106142864725</v>
+      </c>
+      <c r="C3">
         <v>-8.028779524684778</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.1581300089549967</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.7978248477984897</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-1.003041176992548</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-1.96197587349966</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.8717423513813284</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-0.7973623123248356</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.2228101254184071</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-1.490979331480904</v>
-      </c>
-      <c r="K3">
-        <v>1.337376042118068</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -583,34 +583,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>-9.085154484867306</v>
+      </c>
+      <c r="C4">
         <v>-0.898244951227533</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>-0.2585501123840399</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-2.059416137175077</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-3.01835083368219</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-0.1846326088012012</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-1.853737272507365</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-0.8335648347641225</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-2.547354291663434</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.281001081935538</v>
-      </c>
-      <c r="K4">
-        <v>-1.954331517930581</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -618,34 +618,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>-0.02759857525660239</v>
+      </c>
+      <c r="C5">
         <v>0.6120962635868906</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-1.188769761204147</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-2.14770445771126</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.6860137671697293</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-0.9830908965364347</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.03708154120680809</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-1.676707915692503</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1.151647457906469</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-1.083685141959651</v>
-      </c>
-      <c r="K5">
-        <v>0.2676499159580117</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -653,34 +653,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>0.6014450472570072</v>
+      </c>
+      <c r="C6">
         <v>-1.19942097753403</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-2.158355674041143</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.6753625508398458</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-0.9937421128663182</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.02643032487692459</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-1.687359132022387</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1.140996241576585</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-1.094336358289534</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.2569986996281282</v>
-      </c>
-      <c r="K6">
-        <v>-0.3644392301887736</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -688,34 +688,34 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>-1.308035509750171</v>
+      </c>
+      <c r="C7">
         <v>-2.266970206257284</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.5667480186237051</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-1.102356645082459</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-0.08218420733921622</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-1.795973664238528</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1.032381709360444</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-1.202950890505675</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.1483841674119874</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-0.4730537624049144</v>
-      </c>
-      <c r="K7">
-        <v>0.02750693478591659</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -723,34 +723,34 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>-2.058868485289545</v>
+      </c>
+      <c r="C8">
         <v>0.774849739591444</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-0.89425492411472</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.1259175136285228</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-1.587871943270789</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1.240483430328183</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-0.994849169537936</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.3564858883797264</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>-0.2649520414371754</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.2356086557536556</v>
-      </c>
-      <c r="K8">
-        <v>-0.4322994165924858</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,34 +758,34 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>0.8913479099652445</v>
+      </c>
+      <c r="C9">
         <v>-0.7777567537409195</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.2424156840023232</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-1.471373772896988</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1.356981600701984</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-0.8783509991641355</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.4729840587535268</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-0.148453871063375</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.352106826127456</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-0.3158012462186854</v>
-      </c>
-      <c r="K9">
-        <v>0.1131997290193177</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,34 +793,34 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>-0.7322633397437844</v>
+      </c>
+      <c r="C10">
         <v>0.2879090979994584</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-1.425880358899853</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1.402475014699119</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-0.8328575851670005</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.5184774727506619</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-0.1029604570662399</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.3976002401245912</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-0.2703078322215502</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>0.1586931430164528</v>
-      </c>
-      <c r="K10">
-        <v>0.2163646915946629</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -828,34 +828,34 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>0.2703549766394939</v>
+      </c>
+      <c r="C11">
         <v>-1.443434480259818</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1.384920893339154</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-0.8504117065269649</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.5009233513906975</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-0.1205145784262043</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.3800461187646267</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-0.2878619535815147</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.1411390216564884</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.1988105702346985</v>
-      </c>
-      <c r="K11">
-        <v>0.322776941072984</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -863,34 +863,34 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>-1.355327161308811</v>
+      </c>
+      <c r="C12">
         <v>1.473028212290161</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-0.7623043875759586</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.5890306703417038</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-0.0324072594751981</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.4681534377156329</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-0.1997546346305085</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.2292463406074946</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.2869178891857047</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.4108842600239903</v>
-      </c>
-      <c r="K12">
-        <v>-0.4825338632108016</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -898,34 +898,34 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>1.651602845777944</v>
+      </c>
+      <c r="C13">
         <v>-0.5837297540881751</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.7676053038294873</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.1461673740125855</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.6467280712034165</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-0.02118000114272489</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.4078209740952782</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.4654925226734883</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.5894588935117738</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-0.303959229723018</v>
-      </c>
-      <c r="K13">
-        <v>0.4661714972207444</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -933,34 +933,34 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>0.3282974736644749</v>
+      </c>
+      <c r="C14">
         <v>1.679632531582137</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1.058194601765235</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1.558755298956066</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.8908472266099251</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1.319848201847928</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1.377519750426138</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1.501486121264424</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.608067998029632</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>1.378198724973394</v>
-      </c>
-      <c r="K14">
-        <v>1.11229800409388</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -968,30 +968,33 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>0.7356582956163805</v>
+      </c>
+      <c r="C15">
         <v>0.1142203657994787</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.6147810629903097</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-0.0531270093558317</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.3758739658821714</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.4335455144603815</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.557511885298667</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-0.3359062379361248</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.4342244890076376</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.1683237681281231</v>
       </c>
     </row>
@@ -1000,152 +1003,179 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>0.1181882633125878</v>
+      </c>
+      <c r="C16">
         <v>0.6187489605034189</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>-0.04915911184272259</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.3798418633952805</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.4375134119734906</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.5614797828117761</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>-0.3319383404230157</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.4381923865207467</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.1722916656412322</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
+        <v>0.7543890506736601</v>
+      </c>
+      <c r="C17">
         <v>0.08648097832751878</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.5154819535655218</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.573153502143732</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.6971198729820175</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>-0.1962982502527744</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.5738324766909881</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.3079317558114735</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
+        <v>-0.1543252035281459</v>
+      </c>
+      <c r="C18">
         <v>0.2746757717098572</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.3323473202880673</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.4563136911263528</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-0.4371044321084391</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.3330262948353234</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.06712557395580883</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
+        <v>0.2293445564577608</v>
+      </c>
+      <c r="C19">
         <v>0.2870161050359709</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.4109824758742565</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>-0.4824356473605354</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.287695079583227</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.02179435870371246</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
+        <v>0.2201546830999171</v>
+      </c>
+      <c r="C20">
         <v>0.3441210539382026</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-0.5492970692965893</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.2208336576471732</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-0.04506706323234141</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
+        <v>0.314534851581486</v>
+      </c>
+      <c r="C21">
         <v>-0.5788832716533059</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.1912474552904566</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>-0.07465326558905801</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22">
+        <v>-0.5970339283829468</v>
+      </c>
+      <c r="C22">
         <v>0.1730967985608157</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>-0.0928039223186989</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
+        <v>0.1550649743121164</v>
+      </c>
+      <c r="C23">
         <v>-0.1108357465673982</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-0.1624199859130616</v>
       </c>
     </row>
   </sheetData>
